--- a/sample_intent.xlsx
+++ b/sample_intent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pornphanakkaragumtorn/csv-to-dialogflow-intent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1695B02C-D1FB-5548-A4E7-F0971810E19B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF878D05-2053-7F46-85F3-F33BF1520039}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="4360" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
